--- a/2024-11-18/2024-11-18.xlsx
+++ b/2024-11-18/2024-11-18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keabraekman/Documents/github/job-applications/2024-11-18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B49F46-91EF-1A4C-86F4-51B4D37C86B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D31D35-16C1-6D4F-95B9-FD767C51C55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="-13460" windowWidth="35840" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="660" windowWidth="35540" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Company name</t>
   </si>
@@ -34,6 +34,42 @@
     <t>Indeed Link</t>
   </si>
   <si>
+    <t>Amazon Web Services, Inc.</t>
+  </si>
+  <si>
+    <t>Cloud Technical Account Manager , Enterprise Support - Strategic Industries - Media &amp; Entertainment</t>
+  </si>
+  <si>
+    <t>Santa Monica, CA 90404 (Mid-City area)</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=76d309160398da1d&amp;bb=9qsOxMwsq6ZcVMxKAKEdyPSXub8R1QBjHlKFyZTvi9hOC-fBsABXMtX1wMk2rFGBNJzz4oz08kVLbXIXCGEyiOCZx72lYk166ARbi_oPu9GXi8qA_k4SfQ%3D%3D&amp;xkcb=SoDy67M35hhKPASg550KbzkdCdPP&amp;fccid=5cc0cdc6dbb121cc&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>SpaceX</t>
+  </si>
+  <si>
+    <t>Sr. Site Reliability Engineer, Data (Application Software)</t>
+  </si>
+  <si>
+    <t>Hawthorne, CA</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=900902f7c0c41955&amp;bb=mi_zV-AAGTjoCfgzq70PgKgZDM6iFaVgL-yssqjLcKWkEytIwlNNmd08YZrHtxhjhiViX3rEL4mlpD_132DLge6EQFHe5_RSDh_Ej8RjixoLbUyLepyT7w%3D%3D&amp;xkcb=SoDc67M35hhI1Jyg1h0IbzkdCdPP&amp;fccid=8bc01be85b97ce0d&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer - Train 1000 Bots to Trade Memecoins</t>
+  </si>
+  <si>
+    <t>Remote in Ontario, CA</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=60e4417d5974ee23&amp;bb=mi_zV-AAGTjoCfgzq70PgJlYSm2Zlz0tZ-sZ-YwiP1m4WBOkgOrXIQnHAJbElP-BdWPgbee7TofNYJ4RGypYhhzkBxs2OjUg6tVl-4az22o6Yyb1EpHvLxkel63v6cXY&amp;xkcb=SoDm67M35hhI1Jyg1h0ObzkdCdPP&amp;fccid=3ed115f185405351&amp;vjs=3</t>
+  </si>
+  <si>
     <t>Ventura Foods</t>
   </si>
   <si>
@@ -43,76 +79,31 @@
     <t>Brea, CA 92821</t>
   </si>
   <si>
-    <t>https://www.indeed.com/rc/clk?jk=0d1a9551f5924559&amp;bb=wedNY554J0c4deXhNIM4kBwKMQN3pncqtf0d_bL-v9OEJwe6TdzJdsmxc2PkRGzKm1E89XxsEGCn-Ae5qDH6kNLo-RztxXfWlLeRA7YXxaltlh1H0sZC_tXRlDKAU6Ui&amp;xkcb=SoCE67M35gYVWTQVq50LbzkdCdPP&amp;fccid=429d36c3a4ce79b9&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Northrop Grumman</t>
-  </si>
-  <si>
-    <t>Sr. Principal Electrical Design Integration Engineer (Secret Clearance Required)</t>
-  </si>
-  <si>
-    <t>Redondo Beach, CA 90278</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=6f87ddb5a842f6a6&amp;bb=rwTksWFq3cLtqUGaXyWWobwezLqlntHTfyvt9N-LlrczUs777Lo8zkuECl94acgQJVFxs3S8SH0STIcshAdjkwMI0c5Y7ZNnV0m8pgYR1uex2u_EkYOk8A%3D%3D&amp;xkcb=SoDg67M35gYUv5gNX70XbzkdCdPP&amp;fccid=11619ce0d3c2c733&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Amazon.com LLC</t>
-  </si>
-  <si>
-    <t>Sr. Marketing Data Mgt Office Mgr., Prime Video Global Operations</t>
-  </si>
-  <si>
-    <t>Culver City, CA</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=56a121981725b59b&amp;bb=CB7UOWGmDZinkK34Yju1FFYQUHhWHdY8qUWNVmF5qB3BYlfMuUWMd3tAJpJ-UlwqljjASzhPK1AxUCmvZAnFPOFCWrjMnihj3yzr98sB_uw0_-fX3qVnxQ%3D%3D&amp;xkcb=SoB867M35gYT6bANX70LbzkdCdPP&amp;fccid=fe2d21eef233e94a&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>EY</t>
-  </si>
-  <si>
-    <t>Risk Consulting - GRC Architecture and Data Management -Senior Manager - Multiple Cities</t>
-  </si>
-  <si>
-    <t>Los Angeles, CA 90017 (Downtown area)</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=03db86cded58676c&amp;bb=CB7UOWGmDZinkK34Yju1FAWiXt9daX9DprW-Jc95niKoVeDJd1SqMcObHSpHNahYeFmKXa6P6TahtEE1n4Bg5oKvGwU04Q5Ts3SfSzJVtUR9VIoAznYOoKTuznlOtitH&amp;xkcb=SoDh67M35gYT6bANX70IbzkdCdPP&amp;fccid=1544766d4c2915b0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Core Audio Triage Engineer</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=b8eb6ccdc0e1d22d&amp;bb=pli8LmZKM352bo0O5QOtyE65VcL6-cwz3pblOkCsGBmILfyZ4RcGuLiLUwHxp8QfYhF-W0DZ2oiCQ2m7-OyYrf-KnUrudQshmYbc7ROjsAvTVuhZtNsDPQ%3D%3D&amp;xkcb=SoBt67M35gYSikANX70LbzkdCdPP&amp;fccid=c1099851e9794854&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Cisco Systems</t>
-  </si>
-  <si>
-    <t>Solutions Engineer- SLED West</t>
-  </si>
-  <si>
-    <t>Glendale, CA</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=4997fa00ad3a2937&amp;bb=PkyPQXsmN1S45uJrzCsRmWHnpjP6EnQzwIeZnwpA7Y0WYz_T0ie-ZyO8ouaVyPr6IgnLyMv1OkdKCisReCkUwst0t0JoEpuqRx8dQTKu6j0jm67_mILD6w%3D%3D&amp;xkcb=SoBJ67M35gYSbWxStx0EbzkdCdPP&amp;fccid=dfc44f3b8c44a6db&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Estrin Legal Staffing</t>
-  </si>
-  <si>
-    <t>Financial Systems Engineer (45346KH)</t>
-  </si>
-  <si>
-    <t>Hybrid work in Los Angeles, CA 90017</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0Bq6ODiyNcpqADSfVIG236C5FPRW_70u-YpzX4uoex0J82L9jkNsTp8xk_u9iAA7S5hEpcjcsepYLfvGQuP-7-fhsvx5Lgsk716WlWVLcwFc6cXW1LeEzzQ6pLP1rXX2s8zUpSHCqgOtTMw8i2IDRFq9Fra5w14-C6wzlBqS_k4sO0D2qQXBJghFvz2pHvZVp54D-XEA3B_D_d-2a_xamN38BE65LZi7dv198L6QBFI-WgZivkqMGHgmj21R3jvwweu3iWALAtBSo_Vl8-TBJWDdKWurn7tarMVCrhzD4tAOk1hr8ivd_Wl98Q3Csq6TIMZBJntVvLfS-w8f9HBrCbnvSFFysCmVvLtLikkmFsBwXwXPSLno3S9GtMIYNvtenr5i9S-ROz18OcIavqQYJJJP3M9NUZuKyJNpTmdAlxSU6PyW-DOwkKh6Kjc13JwX7lr-L-5lYm1FOKNA7uiiO4tM4Owu5tj84afZIN9O4zR3Avu4xCod75TgMLOIMBwyKM0Ih2GfDl_t0j780igau5RNZEJ-jCnncBXWUd4w1m957nHdgK6zNprzI6L0269-ZHsHks_aQMNPexAhqdrmPUl6hn6TyCVeF26eQW_xV-zpkO-BX3s3X_-lLYuNbwEaSkho_jliTkqgCNjGtPy5B0u-7Zr2ADcyalb0QSBa2_-f8AqVZti_-Lg&amp;xkcb=SoCX6_M35gYRWlABR70LbzkdCdPP&amp;camk=4HOcmqOLYrCFq0HMxa7jWQ==&amp;p=0&amp;fvj=0&amp;vjs=3</t>
+    <t>https://www.indeed.com/rc/clk?jk=0d1a9551f5924559&amp;bb=mi_zV-AAGTjoCfgzq70PgKnc_spwSpFN36K-oFqU7SO_8BMWlH_fMKP1AeWh6oKKocAPLKTnPkdGQgYAnEfNm51p2Dh2rFn8S5ifku91sv56jJJ6N3HXJOyK9vFpeUNJ&amp;xkcb=SoAP67M35hhI1Jyg1h0BbzkdCdPP&amp;fccid=429d36c3a4ce79b9&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Raytheon</t>
+  </si>
+  <si>
+    <t>Principal Systems Security Engineer-Cybersecurity Program Lead (P4) (Onsite)</t>
+  </si>
+  <si>
+    <t>Fullerton, CA 92833</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=042c952e77b3aba1&amp;bb=i1ehW8j9uwIF_MtX9nZO9GzD4GB9c6_oe9fVfrpeTUs8gV-mEhyoCFIEdEOpfP93Z5UaRFTxQQDJ0UyR3BuHjjkEQtXTFm-E1V3xGoGCTi0zyqTmd3jWkA%3D%3D&amp;xkcb=SoAZ67M35hhIDESg1h0KbzkdCdPP&amp;fccid=aa53b551f9df0210&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Automobile Club of Southern California</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer - Hybrid</t>
+  </si>
+  <si>
+    <t>Remote in Los Angeles, CA 90007</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=2935d0852889f217&amp;bb=jSRP4w2HuHZmapCtyxQEw6xAu-5j34fcaCtNo933EWUHiYFmMJhzPo7KimWk8cwGbL9KqnWnktkAb4c0zQUSXgVWxmeQiOd2iZWU74zgT9sML0o-ZA9Upp_sPsYjmpfM&amp;xkcb=SoC967M35hhHQagBRL0RbzkdCdPP&amp;fccid=8379a3121011153a&amp;vjs=3</t>
   </si>
   <si>
     <t>JPMorgan Chase</t>
@@ -124,19 +115,16 @@
     <t>Newport Beach, CA 92657</t>
   </si>
   <si>
-    <t>https://www.indeed.com/rc/clk?jk=4ca4e88b38bdfae1&amp;bb=QISRQc7wi3cwF7JbdtThyTww01eawttEmWL_aC381OR4WLQM8F8GfLh9vqFP1f-u1OdjsNN6zkYhKS6yHpOHN_-kcLVJpJaBbj3BoX1zSy5yDnt3ZLXwjw%3D%3D&amp;xkcb=SoDy67M35gYRBtwycp0KbzkdCdPP&amp;fccid=c46d0116f6e69eae&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>Senior Software Engineer, Machine Learning, Search</t>
-  </si>
-  <si>
-    <t>Los Angeles, CA (Venice area)</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=f9b806d62ae39f1c&amp;bb=QISRQc7wi3cwF7JbdtThyTHUuzhHCmQWHvdh_oyL-MioSEtIqn1tizFGn5ejbzzo02OaYbZ8Hj1ReL9Tvo0wPupBTVf3rNr6nHEOGCfoAw6GOLnlKvJovw%3D%3D&amp;xkcb=SoBv67M35gYRBtwycp0JbzkdCdPP&amp;fccid=a5b4499d9e91a5c6&amp;vjs=3</t>
+    <t>https://www.indeed.com/rc/clk?jk=4ca4e88b38bdfae1&amp;bb=jSRP4w2HuHZmapCtyxQEw2ewhyQFi70u3upv6QT63lGdsUIhZnd23HSLf5VfX0mtsrR33BYdt9ZZSaOi-FESw6z-n7dhIKKmgbIQfAs27J4wqY5zfpjPNw%3D%3D&amp;xkcb=SoAJ67M35hhHQagBRL0QbzkdCdPP&amp;fccid=c46d0116f6e69eae&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>hive.co</t>
+  </si>
+  <si>
+    <t>Senior Software Developer</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=a8d4ac70e63ba891&amp;bb=ByvEu20bThT2m5ILaDvUdwsxzXWU_PUnXPTj0sdWC1I1-tQ0f8QpySjDHf__7vQTtQQMvNMAZc60QsIV__DYe8MV6gV7vGGv94XrZQztbRF0LIHwTUyJklhrt8j7GG4C&amp;xkcb=SoDO67M35inIgeRQJp0JbzkdCdPP&amp;fccid=5c1587f51107a3e0&amp;vjs=3</t>
   </si>
 </sst>
 </file>
@@ -476,17 +464,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -567,66 +554,52 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
